--- a/biology/Médecine/Claude_Huriez/Claude_Huriez.xlsx
+++ b/biology/Médecine/Claude_Huriez/Claude_Huriez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Huriez, né le 12 décembre 1907 à Tourcoing[1] et mort le 8 février 1984 à Paris[1], est un médecin dermatologue  français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Huriez, né le 12 décembre 1907 à Tourcoing et mort le 8 février 1984 à Paris, est un médecin dermatologue  français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Clément Huriez, médecin, et de Valentine Dewyn, il est marié à Geneviève Dupuich le 20 décembre 1952. Il fait ses études au lycée de Nice et de Tourcoing et à la faculté de médecine de Lille.
 Docteur en médecine, agrégé de médecine générale (1936), il est professeur de clinique dermatologique (1944), médecin de l'hôpital régional de Lille puis professeur de médecine, longtemps titulaire de la chaire de dermatologie à l'université de Lille. Claude Huriez s’est fait le champion de la lutte antisyphilitique, sujet de nombre de ses travaux notamment concernant la transmission de la maladie.
